--- a/data/nopcommerce/nopcommerce.xlsx
+++ b/data/nopcommerce/nopcommerce.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faridaymmeli/Desktop/datateam2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saidu\IdeaProjects\team2project\data\nopcommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F2217A-7B1B-7D42-AB69-86862A116A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C831F-52A4-4467-86E5-EB544A708A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8AB7E0B6-9E77-4CA6-8218-722F00555F19}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{8AB7E0B6-9E77-4CA6-8218-722F00555F19}"/>
   </bookViews>
   <sheets>
-    <sheet name="dorina" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>abcd1234</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -53,7 +50,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>tammana@gmail.com</t>
+    <t>abc@abcdefgh.com</t>
+  </si>
+  <si>
+    <t>abc123</t>
   </si>
 </sst>
 </file>
@@ -419,36 +419,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
